--- a/bin/sim.xlsx
+++ b/bin/sim.xlsx
@@ -339,11 +339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2075234032"/>
-        <c:axId val="-2120327504"/>
+        <c:axId val="-2072332096"/>
+        <c:axId val="-2072314784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2075234032"/>
+        <c:axId val="-2072332096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,12 +386,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120327504"/>
+        <c:crossAx val="-2072314784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120327504"/>
+        <c:axId val="-2072314784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075234032"/>
+        <c:crossAx val="-2072332096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -712,11 +712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2066205472"/>
-        <c:axId val="-2071602032"/>
+        <c:axId val="-2065840432"/>
+        <c:axId val="-2060195632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2066205472"/>
+        <c:axId val="-2065840432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -816,12 +816,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071602032"/>
+        <c:crossAx val="-2060195632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2071602032"/>
+        <c:axId val="-2060195632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066205472"/>
+        <c:crossAx val="-2065840432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1241,11 +1241,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-2063204624"/>
-        <c:axId val="-2063461968"/>
+        <c:axId val="-2072315408"/>
+        <c:axId val="-2072438736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2063204624"/>
+        <c:axId val="-2072315408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063461968"/>
+        <c:crossAx val="-2072438736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063461968"/>
+        <c:axId val="-2072438736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063204624"/>
+        <c:crossAx val="-2072315408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1770,11 +1770,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-2067547584"/>
-        <c:axId val="-2065713616"/>
+        <c:axId val="-2075291408"/>
+        <c:axId val="-2070764064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067547584"/>
+        <c:axId val="-2075291408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065713616"/>
+        <c:crossAx val="-2070764064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1881,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065713616"/>
+        <c:axId val="-2070764064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +1974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067547584"/>
+        <c:crossAx val="-2075291408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,6 +2009,517 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effects</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of number of resources on simulation time (n=100)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$42:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.276</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2060395408"/>
+        <c:axId val="-2055266192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2060395408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of resources</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2055266192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2055266192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Simulation time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2060395408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2169,6 +2680,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4273,6 +4824,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4341,16 +5408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53837</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>77857</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>826880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>36445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>484533</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>129209</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>429315</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>87797</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4371,16 +5438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>550793</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>146878</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>826880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>470728</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>198230</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>429315</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60187</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4394,6 +5461,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>202095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670892</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4665,10 +5762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5322,6 +6419,368 @@
         <v>11.647</v>
       </c>
     </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>111.1</v>
+      </c>
+      <c r="F42">
+        <v>2.42693</v>
+      </c>
+      <c r="G42">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>200.4</v>
+      </c>
+      <c r="F43">
+        <v>113.45099999999999</v>
+      </c>
+      <c r="G43">
+        <v>1.4930000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>244.5</v>
+      </c>
+      <c r="F44">
+        <v>36.805599999999998</v>
+      </c>
+      <c r="G44">
+        <v>2.1389999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1660.2</v>
+      </c>
+      <c r="F45">
+        <v>2050.3200000000002</v>
+      </c>
+      <c r="G45">
+        <v>20.652999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>2317.1999999999998</v>
+      </c>
+      <c r="F46">
+        <v>3776</v>
+      </c>
+      <c r="G46">
+        <v>32.070999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1536.7</v>
+      </c>
+      <c r="F47">
+        <v>70.5989</v>
+      </c>
+      <c r="G47">
+        <v>27.155000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1926.4</v>
+      </c>
+      <c r="F48">
+        <v>1661.37</v>
+      </c>
+      <c r="G48">
+        <v>31.234999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>1229.0999999999999</v>
+      </c>
+      <c r="F49">
+        <v>1334.65</v>
+      </c>
+      <c r="G49">
+        <v>21.030999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>1202.0999999999999</v>
+      </c>
+      <c r="F50">
+        <v>665.79700000000003</v>
+      </c>
+      <c r="G50">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>1167.0999999999999</v>
+      </c>
+      <c r="F51">
+        <v>284.57100000000003</v>
+      </c>
+      <c r="G51">
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>1202.5999999999999</v>
+      </c>
+      <c r="F52">
+        <v>391.65499999999997</v>
+      </c>
+      <c r="G52">
+        <v>26.594999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>1235.5999999999999</v>
+      </c>
+      <c r="F53">
+        <v>259.214</v>
+      </c>
+      <c r="G53">
+        <v>29.431000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>1785.4</v>
+      </c>
+      <c r="F54">
+        <v>649.31899999999996</v>
+      </c>
+      <c r="G54">
+        <v>45.308</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>1430.6</v>
+      </c>
+      <c r="F55">
+        <v>329.03199999999998</v>
+      </c>
+      <c r="G55">
+        <v>37.101999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>1468.8</v>
+      </c>
+      <c r="F56">
+        <v>403.34800000000001</v>
+      </c>
+      <c r="G56">
+        <v>47.005000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>1457.2</v>
+      </c>
+      <c r="F57">
+        <v>376.54500000000002</v>
+      </c>
+      <c r="G57">
+        <v>42.276000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>1354.7</v>
+      </c>
+      <c r="F58">
+        <v>218.36099999999999</v>
+      </c>
+      <c r="G58">
+        <v>39.936</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>1282.3</v>
+      </c>
+      <c r="F59">
+        <v>277.23</v>
+      </c>
+      <c r="G59">
+        <v>37.021000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>1317.8</v>
+      </c>
+      <c r="F60">
+        <v>213.321</v>
+      </c>
+      <c r="G60">
+        <v>38.878</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
